--- a/public/files/plantillas/IRCAP20221102A1.xlsx
+++ b/public/files/plantillas/IRCAP20221102A1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Documents\proyectos\irc\plantillas excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Documents\proyectos\irc\IRC_LARAVEL\public\files\plantillas\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,31 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="36">
-  <si>
-    <t>CC</t>
-  </si>
-  <si>
-    <t>Denilson</t>
-  </si>
-  <si>
-    <t>De jesus</t>
-  </si>
-  <si>
-    <t>Castro</t>
-  </si>
-  <si>
-    <t>Algarin</t>
-  </si>
-  <si>
-    <t>Calle 11#5C-24</t>
-  </si>
-  <si>
-    <t>M</t>
-  </si>
-  <si>
-    <t>Sura</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>numero_de_documento</t>
   </si>
@@ -92,46 +68,10 @@
     <t>fecha_reporte</t>
   </si>
   <si>
-    <t>mes</t>
-  </si>
-  <si>
     <t>prioridad</t>
   </si>
   <si>
-    <t>Andres</t>
-  </si>
-  <si>
-    <t>Jesus</t>
-  </si>
-  <si>
-    <t>Juan</t>
-  </si>
-  <si>
-    <t>Alan</t>
-  </si>
-  <si>
-    <t>19/04/2000</t>
-  </si>
-  <si>
-    <t>19/04/2001</t>
-  </si>
-  <si>
-    <t>19/04/2002</t>
-  </si>
-  <si>
-    <t>19/04/2003</t>
-  </si>
-  <si>
-    <t>19/04/2004</t>
-  </si>
-  <si>
-    <t>ATLANTICO</t>
-  </si>
-  <si>
-    <t>BARRANQUILLA</t>
-  </si>
-  <si>
-    <t>ABRIL</t>
+    <t>mes-año</t>
   </si>
 </sst>
 </file>
@@ -167,19 +107,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
@@ -462,10 +396,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W6"/>
+  <dimension ref="A1:W1"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="Q11" sqref="Q11"/>
+      <selection activeCell="L2" sqref="A2:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -476,341 +410,76 @@
     <col min="5" max="5" width="14.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.7109375" style="3" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.85546875" style="3" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="5.28515625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.7109375" style="5" customWidth="1"/>
+    <col min="14" max="14" width="13.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.7109375" style="3" customWidth="1"/>
     <col min="16" max="16" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.7109375" style="3" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="16.5703125" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="19" style="5" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="19" style="3" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="10.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="10.7109375" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="N1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="O1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="P1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q1" s="3"/>
-      <c r="U1" s="3"/>
-      <c r="W1" s="3"/>
-    </row>
-    <row r="2" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="2">
-        <v>523423423</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G2" s="2">
-        <v>3043670917</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="N2" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="O2" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="P2" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q2" s="4"/>
-      <c r="U2" s="4"/>
-      <c r="W2" s="4"/>
-    </row>
-    <row r="3" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="2">
-        <v>523423424</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G3" s="2">
-        <v>2654252454</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="N3" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="O3" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="P3" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q3" s="4"/>
-      <c r="U3" s="4"/>
-      <c r="W3" s="4"/>
-    </row>
-    <row r="4" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="2">
-        <v>523423425</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G4" s="2">
-        <v>3452345435</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="J4" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="M4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="N4" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="O4" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="P4" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q4" s="4"/>
-      <c r="U4" s="4"/>
-      <c r="W4" s="4"/>
-    </row>
-    <row r="5" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="2">
-        <v>523423426</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G5" s="2">
-        <v>2345234523</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="J5" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="M5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="N5" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="O5" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="P5" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q5" s="4"/>
-      <c r="U5" s="4"/>
-      <c r="W5" s="4"/>
-    </row>
-    <row r="6" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="2">
-        <v>523423427</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G6" s="2">
-        <v>2346456345</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="J6" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="L6" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="M6" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="N6" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="O6" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="P6" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q6" s="4"/>
-      <c r="U6" s="4"/>
-      <c r="W6" s="4"/>
+      <c r="Q1" s="2"/>
+      <c r="U1" s="2"/>
+      <c r="W1" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/public/files/plantillas/IRCAP20221102A1.xlsx
+++ b/public/files/plantillas/IRCAP20221102A1.xlsx
@@ -71,7 +71,7 @@
     <t>prioridad</t>
   </si>
   <si>
-    <t>mes-año</t>
+    <t>mes-year</t>
   </si>
 </sst>
 </file>
@@ -399,7 +399,7 @@
   <dimension ref="A1:W1"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="L2" sqref="A2:XFD6"/>
+      <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/public/files/plantillas/IRCAP20221102A1.xlsx
+++ b/public/files/plantillas/IRCAP20221102A1.xlsx
@@ -107,15 +107,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -396,39 +393,41 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W1"/>
+  <dimension ref="A1:P1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="O2" sqref="O2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="5.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.7109375" style="3" customWidth="1"/>
-    <col min="16" max="16" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="19" style="3" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="10.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.42578125" style="2"/>
+    <col min="2" max="2" width="21.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="22.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.7109375" style="2" customWidth="1"/>
+    <col min="16" max="16" width="10.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="16.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="19" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="15.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="10.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="11.42578125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -450,13 +449,13 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
@@ -468,18 +467,15 @@
       <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="O1" s="1" t="s">
         <v>15</v>
       </c>
       <c r="P1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="2"/>
-      <c r="U1" s="2"/>
-      <c r="W1" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
